--- a/premise/data/additional_inventories/lci-batteries-LiS.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-LiS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE1B106-125E-47BE-AF64-F2272A14E0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21561886-20C3-4B3F-AB2A-739FD13F68F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3705" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - Li-S" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - Li-S'!$A$1:$O$1059</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - Li-S'!$A$1:$O$1058</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="436">
   <si>
     <t>Activity</t>
   </si>
@@ -938,9 +938,6 @@
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>Original values in SI have been corrected</t>
   </si>
   <si>
     <t>trifluoromethanesulphonyl fluoride (CF3SO2F)</t>
@@ -1333,9 +1330,6 @@
     <t>Location changed from "GLO" to "RoW". There is no GLO market for this activity</t>
   </si>
   <si>
-    <t>Original value multiplied by 0.03 to solve mass-allocation</t>
-  </si>
-  <si>
     <t>Reference product was corrected</t>
   </si>
   <si>
@@ -1500,6 +1494,12 @@
   </si>
   <si>
     <t>battery, LiS module</t>
+  </si>
+  <si>
+    <t>Original value multiplied by 0.03 to solve mass-allocation - and then divided by 0.03 to scale it to the production of 1 kg</t>
+  </si>
+  <si>
+    <t>Original values in SI have been corrected. The specific electricity market that was created for the paper has been deleted and unified under the conventional market in Ecoinvent</t>
   </si>
 </sst>
 </file>
@@ -1963,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1053"/>
+  <dimension ref="A1:Q1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A791" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S800" sqref="S800"/>
+    <sheetView tabSelected="1" topLeftCell="A671" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D700" sqref="D700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2031,7 +2031,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2047,7 +2047,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2083,7 +2083,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2098,7 +2098,7 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75">
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75">
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2261,7 +2261,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2294,7 +2294,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B35" s="5">
         <v>0.94</v>
@@ -2389,7 +2389,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2515,7 +2515,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B42" s="5">
         <v>0.13</v>
@@ -2524,7 +2524,7 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F42" t="s">
         <v>44</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75">
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2589,7 +2589,7 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2625,7 +2625,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B56" s="7">
         <v>2.6</v>
@@ -2683,7 +2683,7 @@
         <v>48</v>
       </c>
       <c r="H57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2789,7 +2789,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B63" s="4">
         <v>9.5000000000000001E-2</v>
@@ -2798,7 +2798,7 @@
         <v>45</v>
       </c>
       <c r="D63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F63" t="s">
         <v>44</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2842,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>0.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2866,7 +2866,7 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2902,10 +2902,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B76">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -2925,8 +2925,8 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <f>0.0000000004*0.03</f>
-        <v>1.2000000000000001E-11</v>
+        <f>0.0000000004</f>
+        <v>4.0000000000000001E-10</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -2941,7 +2941,7 @@
         <v>39</v>
       </c>
       <c r="H77" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2949,8 +2949,8 @@
         <v>22</v>
       </c>
       <c r="B78" s="5">
-        <f>0.03*0.416</f>
-        <v>1.248E-2</v>
+        <f>0.416</f>
+        <v>0.41599999999999998</v>
       </c>
       <c r="C78" t="s">
         <v>23</v>
@@ -2970,8 +2970,8 @@
         <v>274</v>
       </c>
       <c r="B79" s="7">
-        <f>0.03*2.15</f>
-        <v>6.4500000000000002E-2</v>
+        <f>2.15</f>
+        <v>2.15</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
@@ -2991,8 +2991,8 @@
         <v>275</v>
       </c>
       <c r="B80" s="4">
-        <f>0.03*0.02998</f>
-        <v>8.9939999999999996E-4</v>
+        <f>0.02998</f>
+        <v>2.998E-2</v>
       </c>
       <c r="C80" t="s">
         <v>34</v>
@@ -3012,8 +3012,8 @@
         <v>275</v>
       </c>
       <c r="B81" s="5">
-        <f>0.03*0.17002</f>
-        <v>5.1006000000000003E-3</v>
+        <f>0.17002</f>
+        <v>0.17002</v>
       </c>
       <c r="C81" t="s">
         <v>34</v>
@@ -3033,8 +3033,8 @@
         <v>277</v>
       </c>
       <c r="B82" s="5">
-        <f>0.03*0.70572</f>
-        <v>2.1171599999999999E-2</v>
+        <f>0.70572</f>
+        <v>0.70572000000000001</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -3054,8 +3054,8 @@
         <v>277</v>
       </c>
       <c r="B83" s="5">
-        <f>0.03*0.12023</f>
-        <v>3.6069000000000001E-3</v>
+        <f>0.12023</f>
+        <v>0.12023</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -3075,8 +3075,8 @@
         <v>68</v>
       </c>
       <c r="B84" s="4">
-        <f>0.03*0.01491</f>
-        <v>4.4729999999999998E-4</v>
+        <f>0.01491</f>
+        <v>1.491E-2</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -3096,8 +3096,8 @@
         <v>68</v>
       </c>
       <c r="B85" s="8">
-        <f>0.03*0.00409</f>
-        <v>1.227E-4</v>
+        <f>0.00409</f>
+        <v>4.0899999999999999E-3</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -3117,8 +3117,8 @@
         <v>279</v>
       </c>
       <c r="B86" s="5">
-        <f>0.03*0.22973</f>
-        <v>6.8918999999999994E-3</v>
+        <f>0.22973</f>
+        <v>0.22972999999999999</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -3138,8 +3138,8 @@
         <v>281</v>
       </c>
       <c r="B87">
-        <f>0.03*0.026</f>
-        <v>7.7999999999999999E-4</v>
+        <f>0.026</f>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -3156,17 +3156,17 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B88" s="4">
-        <f>0.03*0.0164</f>
-        <v>4.9200000000000003E-4</v>
+        <f>0.0164</f>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="C88" t="s">
         <v>45</v>
       </c>
       <c r="D88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F88" t="s">
         <v>44</v>
@@ -3174,17 +3174,17 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B89">
-        <f>0.03*0.00086</f>
-        <v>2.5799999999999997E-5</v>
+        <f>0.00086</f>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="C89" t="s">
         <v>45</v>
       </c>
       <c r="D89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F89" t="s">
         <v>44</v>
@@ -3192,17 +3192,17 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B90">
-        <f>0.03*0.00083</f>
-        <v>2.4899999999999999E-5</v>
+        <f>0.00083</f>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="C90" t="s">
         <v>45</v>
       </c>
       <c r="D90" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F90" t="s">
         <v>44</v>
@@ -3213,8 +3213,8 @@
         <v>49</v>
       </c>
       <c r="B91" s="13">
-        <f>0.03*(-0.00000176509)</f>
-        <v>-5.2952699999999995E-8</v>
+        <f>(-0.00000176509)</f>
+        <v>-1.76509E-6</v>
       </c>
       <c r="C91" t="s">
         <v>45</v>
@@ -3234,8 +3234,8 @@
         <v>49</v>
       </c>
       <c r="B92" s="13">
-        <f>0.03*-0.000000091266</f>
-        <v>-2.7379800000000001E-9</v>
+        <f>-0.000000091266</f>
+        <v>-9.1266000000000005E-8</v>
       </c>
       <c r="C92" t="s">
         <v>45</v>
@@ -3255,8 +3255,8 @@
         <v>49</v>
       </c>
       <c r="B93" s="13">
-        <f>0.03*-0.000000843646</f>
-        <v>-2.5309379999999997E-8</v>
+        <f>-0.000000843646</f>
+        <v>-8.4364599999999996E-7</v>
       </c>
       <c r="C93" t="s">
         <v>45</v>
@@ -3273,11 +3273,11 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B94" s="13">
-        <f>0.03*0.00289</f>
-        <v>8.6700000000000007E-5</v>
+        <f>0.00289</f>
+        <v>2.8900000000000002E-3</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -3291,11 +3291,11 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B95" s="13">
-        <f>0.03*0.0413</f>
-        <v>1.2390000000000001E-3</v>
+        <f>0.0413</f>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -3309,11 +3309,11 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B96" s="13">
-        <f>0.03*0.019</f>
-        <v>5.6999999999999998E-4</v>
+        <f>0.019</f>
+        <v>1.9E-2</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
@@ -3327,17 +3327,17 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B97" s="13">
-        <f>0.03*0.01091</f>
-        <v>3.2729999999999999E-4</v>
+        <f>0.01091</f>
+        <v>1.091E-2</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F97" t="s">
         <v>44</v>
@@ -3345,11 +3345,11 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B98" s="13">
-        <f>0.03*0.00057</f>
-        <v>1.7099999999999999E-5</v>
+        <f>0.00057</f>
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -3363,11 +3363,11 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B99" s="13">
-        <f>0.03*0.0014</f>
-        <v>4.1999999999999998E-5</v>
+        <f>0.03*0.001</f>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="C99" t="s">
         <v>45</v>
@@ -3381,11 +3381,11 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B100" s="13">
-        <f>0.03*0.0167</f>
-        <v>5.0099999999999993E-4</v>
+        <f>0.0167</f>
+        <v>1.67E-2</v>
       </c>
       <c r="C100" t="s">
         <v>45</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75">
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3456,7 +3456,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3489,7 +3489,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B114">
         <v>2.2000000000000002</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B115">
         <v>0.76</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B121">
         <v>0.28000000000000003</v>
@@ -3659,7 +3659,7 @@
         <v>45</v>
       </c>
       <c r="D121" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F121" t="s">
         <v>44</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75">
@@ -3678,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3718,7 +3718,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3751,7 +3751,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B135" s="17">
         <v>0.82</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B136">
         <v>0.52</v>
@@ -3806,7 +3806,7 @@
         <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3972,7 +3972,7 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B145">
         <v>0.38</v>
@@ -3981,7 +3981,7 @@
         <v>45</v>
       </c>
       <c r="D145" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F145" t="s">
         <v>44</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15.75">
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4040,7 +4040,7 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4073,7 +4073,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B159" s="8">
         <v>1.2</v>
@@ -4193,7 +4193,7 @@
         <v>50</v>
       </c>
       <c r="G163" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4215,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4239,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4255,7 +4255,7 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4291,7 +4291,7 @@
     </row>
     <row r="176" spans="1:8" ht="15.75">
       <c r="A176" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -4306,12 +4306,12 @@
         <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B177" s="7">
         <v>1.5</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B178" s="5">
         <v>0.27</v>
@@ -4346,10 +4346,10 @@
         <v>15</v>
       </c>
       <c r="G178" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H178" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I178" s="21"/>
     </row>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="15.75">
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -4533,7 +4533,7 @@
         <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4566,7 +4566,7 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="15.75">
@@ -4738,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="B209" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -4778,7 +4778,7 @@
         <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -4814,7 +4814,7 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B217" s="8">
         <v>1</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B220" s="8">
         <v>0.48</v>
@@ -4889,10 +4889,10 @@
         <v>15</v>
       </c>
       <c r="G220" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H220" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="15.75">
@@ -5034,7 +5034,7 @@
         <v>1</v>
       </c>
       <c r="B231" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5074,7 +5074,7 @@
         <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5107,7 +5107,7 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B241" s="5">
         <v>0.74</v>
@@ -5162,10 +5162,10 @@
         <v>15</v>
       </c>
       <c r="F241" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G241" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="15.75">
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -5309,7 +5309,7 @@
         <v>8</v>
       </c>
       <c r="B255" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -5342,7 +5342,7 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B259" s="5">
         <v>0.52</v>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="15.75">
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="B269" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -5543,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="B274" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -5576,7 +5576,7 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="289" spans="1:17" ht="15.75">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="B289" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="290" spans="1:17">
@@ -5794,7 +5794,7 @@
         <v>8</v>
       </c>
       <c r="B294" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="295" spans="1:17">
@@ -5830,7 +5830,7 @@
     </row>
     <row r="297" spans="1:17">
       <c r="A297" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B297" s="5">
         <v>1</v>
@@ -5888,7 +5888,7 @@
         <v>21</v>
       </c>
       <c r="H299" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K299" s="10"/>
       <c r="L299" s="10"/>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="15.75">
@@ -5977,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="B307" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -6017,7 +6017,7 @@
         <v>8</v>
       </c>
       <c r="B312" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -6050,7 +6050,7 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B326">
         <v>0.19</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="15.75">
@@ -6322,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="B332" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -6362,7 +6362,7 @@
         <v>8</v>
       </c>
       <c r="B337" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -6395,7 +6395,7 @@
     </row>
     <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="15.75">
@@ -6466,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="B347" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -6506,7 +6506,7 @@
         <v>8</v>
       </c>
       <c r="B352" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -6539,7 +6539,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B359" s="5">
         <v>0.11600000000000001</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B360" s="5">
         <v>0.10199999999999999</v>
@@ -6678,7 +6678,7 @@
         <v>24</v>
       </c>
       <c r="H361" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -6702,7 +6702,7 @@
         <v>35</v>
       </c>
       <c r="H362" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -6726,7 +6726,7 @@
         <v>81</v>
       </c>
       <c r="H363" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="15.75">
@@ -6768,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="B369" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -6808,7 +6808,7 @@
         <v>8</v>
       </c>
       <c r="B374" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -6844,7 +6844,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="378" spans="1:8" ht="15.75">
       <c r="A378" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B378" s="5">
         <v>0.28000000000000003</v>
@@ -6879,12 +6879,12 @@
         <v>15</v>
       </c>
       <c r="G378" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="379" spans="1:8">
       <c r="A379" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B379" s="5">
         <v>0.32</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B380" s="4">
         <v>1.7999999999999999E-2</v>
@@ -6983,7 +6983,7 @@
         <v>24</v>
       </c>
       <c r="H383" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -7007,7 +7007,7 @@
         <v>35</v>
       </c>
       <c r="H384" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -7031,7 +7031,7 @@
         <v>81</v>
       </c>
       <c r="H385" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="B389" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C389" s="11"/>
       <c r="D389" s="15"/>
@@ -7061,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="B390" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C390" s="11"/>
       <c r="D390" s="15"/>
@@ -7126,7 +7126,7 @@
         <v>8</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C395" s="15"/>
       <c r="D395" s="15"/>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B398" s="15">
         <v>1</v>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="B407" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C407" s="11"/>
       <c r="D407" s="15"/>
@@ -7339,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="B408" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C408" s="11"/>
       <c r="D408" s="15"/>
@@ -7404,7 +7404,7 @@
         <v>8</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C413" s="15"/>
       <c r="D413" s="15"/>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -7509,7 +7509,7 @@
         <v>21</v>
       </c>
       <c r="H418" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="B422" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C422" s="11"/>
       <c r="D422" s="15"/>
@@ -7562,7 +7562,7 @@
         <v>1</v>
       </c>
       <c r="B423" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C423" s="11"/>
       <c r="D423" s="15"/>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B431" s="15">
         <v>1</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="439" spans="1:8" ht="15.75">
@@ -7785,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="B439" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -7825,7 +7825,7 @@
         <v>8</v>
       </c>
       <c r="B444" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -7861,7 +7861,7 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B448" s="3">
         <f>7.4/1000*(1/0.046)</f>
@@ -7900,12 +7900,12 @@
         <v>109</v>
       </c>
       <c r="H448" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="449" spans="1:8">
       <c r="A449" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B449" s="3">
         <f>4.6/1000*(1/0.046)</f>
@@ -7924,12 +7924,12 @@
         <v>112</v>
       </c>
       <c r="H449" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="450" spans="1:8">
       <c r="A450" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B450" s="3">
         <f>11/1000*(1/0.046)</f>
@@ -7948,12 +7948,12 @@
         <v>115</v>
       </c>
       <c r="H450" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="451" spans="1:8">
       <c r="A451" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B451" s="3">
         <f>20/1000*(1/0.046)</f>
@@ -7972,12 +7972,12 @@
         <v>121</v>
       </c>
       <c r="H451" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="452" spans="1:8">
       <c r="A452" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B452" s="3">
         <f>0.13/1000*(1/0.046)</f>
@@ -7996,12 +7996,12 @@
         <v>126</v>
       </c>
       <c r="H452" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="453" spans="1:8">
       <c r="A453" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B453" s="3">
         <f>0.12/1000*(1/0.046)</f>
@@ -8020,12 +8020,12 @@
         <v>127</v>
       </c>
       <c r="H453" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="454" spans="1:8">
       <c r="A454" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B454" s="3">
         <f>0.069/1000*(1/0.046)</f>
@@ -8044,7 +8044,7 @@
         <v>128</v>
       </c>
       <c r="H454" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -8068,7 +8068,7 @@
         <v>52</v>
       </c>
       <c r="H455" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -8113,7 +8113,7 @@
         <v>50</v>
       </c>
       <c r="H457" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -8160,7 +8160,7 @@
         <v>5</v>
       </c>
       <c r="B465" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -8176,7 +8176,7 @@
         <v>8</v>
       </c>
       <c r="B467" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -8209,7 +8209,7 @@
     </row>
     <row r="470" spans="1:7">
       <c r="A470" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -8224,12 +8224,12 @@
         <v>13</v>
       </c>
       <c r="F470" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="471" spans="1:7">
       <c r="A471" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="473" spans="1:7">
       <c r="A473" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B473" s="13">
         <f>0.0000000115*(1/0.046)</f>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -8308,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="B478" s="27" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -8348,7 +8348,7 @@
         <v>8</v>
       </c>
       <c r="B483" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -8381,7 +8381,7 @@
     </row>
     <row r="486" spans="1:7">
       <c r="A486" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -8460,7 +8460,7 @@
         <v>24</v>
       </c>
       <c r="G489" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -8484,7 +8484,7 @@
         <v>35</v>
       </c>
       <c r="G490" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -8508,7 +8508,7 @@
         <v>81</v>
       </c>
       <c r="G491" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="496" spans="1:7" ht="15.75">
@@ -8530,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="B496" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="497" spans="1:11">
@@ -8554,7 +8554,7 @@
         <v>5</v>
       </c>
       <c r="B499" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="500" spans="1:11">
@@ -8570,7 +8570,7 @@
         <v>8</v>
       </c>
       <c r="B501" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="502" spans="1:11">
@@ -8606,7 +8606,7 @@
     </row>
     <row r="504" spans="1:11">
       <c r="A504" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -8621,12 +8621,12 @@
         <v>13</v>
       </c>
       <c r="G504" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="505" spans="1:11">
       <c r="A505" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B505" s="5">
         <f>408*0.046/24.971</f>
@@ -8642,15 +8642,15 @@
         <v>15</v>
       </c>
       <c r="G505" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H505" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="506" spans="1:11">
       <c r="A506" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B506" s="5">
         <f>0.275/24.971</f>
@@ -8671,7 +8671,7 @@
     </row>
     <row r="507" spans="1:11">
       <c r="A507" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B507" s="5">
         <f>0.593/24.971</f>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="508" spans="1:11" ht="15.75">
       <c r="A508" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B508" s="4">
         <f>0.085/24.971</f>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="517" spans="1:8" ht="15.75">
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="B517" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -8860,7 +8860,7 @@
         <v>8</v>
       </c>
       <c r="B522" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -8896,7 +8896,7 @@
     </row>
     <row r="525" spans="1:8">
       <c r="A525" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B525">
         <v>1</v>
@@ -9036,7 +9036,7 @@
         <v>73</v>
       </c>
       <c r="H531" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="B535" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="536" spans="1:8" ht="15.75">
@@ -9058,7 +9058,7 @@
         <v>1</v>
       </c>
       <c r="B536" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -9098,7 +9098,7 @@
         <v>8</v>
       </c>
       <c r="B541" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -9128,7 +9128,7 @@
     </row>
     <row r="544" spans="1:8">
       <c r="A544" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="B557" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="15.75">
@@ -9347,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="B558" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -9387,7 +9387,7 @@
         <v>8</v>
       </c>
       <c r="B563" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -9417,7 +9417,7 @@
     </row>
     <row r="566" spans="1:7">
       <c r="A566" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -9589,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -9597,7 +9597,7 @@
         <v>1</v>
       </c>
       <c r="B578" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -9637,7 +9637,7 @@
         <v>8</v>
       </c>
       <c r="B583" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -9670,7 +9670,7 @@
     </row>
     <row r="586" spans="1:7">
       <c r="A586" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B586">
         <v>1</v>
@@ -9710,7 +9710,7 @@
     </row>
     <row r="588" spans="1:7">
       <c r="A588" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B588" s="5">
         <v>0.152</v>
@@ -9791,7 +9791,7 @@
     </row>
     <row r="592" spans="1:7">
       <c r="A592" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B592" s="7">
         <v>2.8</v>
@@ -9811,7 +9811,7 @@
     </row>
     <row r="593" spans="1:7">
       <c r="A593" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B593" s="4">
         <v>2.8000000000000001E-2</v>
@@ -9851,7 +9851,7 @@
     </row>
     <row r="595" spans="1:7">
       <c r="A595" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B595" s="4">
         <v>6.7699999999999996E-2</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="596" spans="1:7">
       <c r="A596" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B596" s="7">
         <v>1.2</v>
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="605" spans="1:7" ht="15.75">
@@ -9991,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="B605" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -10031,7 +10031,7 @@
         <v>8</v>
       </c>
       <c r="B610" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="611" spans="1:14">
@@ -10067,7 +10067,7 @@
     </row>
     <row r="613" spans="1:14">
       <c r="A613" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B613">
         <f>0.07/0.07</f>
@@ -10107,7 +10107,7 @@
         <v>157</v>
       </c>
       <c r="H614" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="615" spans="1:14">
@@ -10131,7 +10131,7 @@
         <v>159</v>
       </c>
       <c r="H615" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="616" spans="1:14">
@@ -10155,7 +10155,7 @@
         <v>161</v>
       </c>
       <c r="H616" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="617" spans="1:14">
@@ -10179,7 +10179,7 @@
         <v>163</v>
       </c>
       <c r="H617" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="618" spans="1:14">
@@ -10203,7 +10203,7 @@
         <v>165</v>
       </c>
       <c r="H618" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="619" spans="1:14">
@@ -10227,7 +10227,7 @@
         <v>167</v>
       </c>
       <c r="H619" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="620" spans="1:14">
@@ -10251,7 +10251,7 @@
         <v>169</v>
       </c>
       <c r="H620" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="621" spans="1:14">
@@ -10275,7 +10275,7 @@
         <v>171</v>
       </c>
       <c r="H621" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="622" spans="1:14">
@@ -10299,7 +10299,7 @@
         <v>173</v>
       </c>
       <c r="H622" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="623" spans="1:14">
@@ -10323,13 +10323,13 @@
         <v>175</v>
       </c>
       <c r="H623" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N623" s="5"/>
     </row>
     <row r="624" spans="1:14">
       <c r="A624" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B624" s="5">
         <v>1.004</v>
@@ -10344,10 +10344,10 @@
         <v>15</v>
       </c>
       <c r="G624" t="s">
+        <v>394</v>
+      </c>
+      <c r="H624" t="s">
         <v>396</v>
-      </c>
-      <c r="H624" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -10371,7 +10371,7 @@
         <v>177</v>
       </c>
       <c r="H625" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -10395,7 +10395,7 @@
         <v>179</v>
       </c>
       <c r="H626" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -10419,7 +10419,7 @@
         <v>181</v>
       </c>
       <c r="H627" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="632" spans="1:8" ht="15.75">
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="B632" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -10481,7 +10481,7 @@
         <v>8</v>
       </c>
       <c r="B637" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -10517,7 +10517,7 @@
     </row>
     <row r="640" spans="1:8">
       <c r="A640" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -10556,12 +10556,12 @@
         <v>183</v>
       </c>
       <c r="H641" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="642" spans="1:11">
       <c r="A642" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B642">
         <v>1</v>
@@ -10600,7 +10600,7 @@
         <v>185</v>
       </c>
       <c r="H643" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="644" spans="1:11">
@@ -10624,7 +10624,7 @@
         <v>187</v>
       </c>
       <c r="H644" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="645" spans="1:11">
@@ -10668,7 +10668,7 @@
         <v>189</v>
       </c>
       <c r="H646" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="647" spans="1:11">
@@ -10692,7 +10692,7 @@
         <v>191</v>
       </c>
       <c r="H647" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="648" spans="1:11">
@@ -10715,7 +10715,7 @@
         <v>69</v>
       </c>
       <c r="H648" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="649" spans="1:11">
@@ -10739,7 +10739,7 @@
         <v>193</v>
       </c>
       <c r="H649" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="650" spans="1:11">
@@ -10763,7 +10763,7 @@
         <v>52</v>
       </c>
       <c r="H650" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K650" s="3"/>
     </row>
@@ -10788,7 +10788,7 @@
         <v>195</v>
       </c>
       <c r="H651" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="652" spans="1:11">
@@ -10812,7 +10812,7 @@
         <v>55</v>
       </c>
       <c r="H652" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="653" spans="1:11">
@@ -10833,12 +10833,12 @@
         <v>44</v>
       </c>
       <c r="H653" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="654" spans="1:11">
       <c r="A654" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B654">
         <f>155/1000</f>
@@ -10854,7 +10854,7 @@
         <v>44</v>
       </c>
       <c r="H654" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="655" spans="1:11">
@@ -10865,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="659" spans="1:7" ht="15.75">
@@ -10873,7 +10873,7 @@
         <v>1</v>
       </c>
       <c r="B659" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="660" spans="1:7">
@@ -10913,7 +10913,7 @@
         <v>8</v>
       </c>
       <c r="B664" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="665" spans="1:7">
@@ -10946,7 +10946,7 @@
     </row>
     <row r="667" spans="1:7">
       <c r="A667" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B667">
         <f>0.5/0.5</f>
@@ -10986,12 +10986,12 @@
         <v>198</v>
       </c>
       <c r="G668" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="669" spans="1:7">
       <c r="A669" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B669" s="7">
         <f>0.5/0.5</f>
@@ -11031,7 +11031,7 @@
         <v>163</v>
       </c>
       <c r="G670" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="671" spans="1:7">
@@ -11095,7 +11095,7 @@
         <v>193</v>
       </c>
       <c r="G673" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="674" spans="1:7">
@@ -11119,7 +11119,7 @@
         <v>52</v>
       </c>
       <c r="G674" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="675" spans="1:7">
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="B678" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="679" spans="1:7" ht="15.75">
@@ -11141,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="B679" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -11181,7 +11181,7 @@
         <v>8</v>
       </c>
       <c r="B684" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="685" spans="1:7">
@@ -11211,7 +11211,7 @@
     </row>
     <row r="687" spans="1:7">
       <c r="A687" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B687">
         <v>1</v>
@@ -11562,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="B707" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="708" spans="1:7" ht="15.75">
@@ -11570,7 +11570,7 @@
         <v>1</v>
       </c>
       <c r="B708" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="709" spans="1:7">
@@ -11610,7 +11610,7 @@
         <v>8</v>
       </c>
       <c r="B713" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="714" spans="1:7">
@@ -11643,7 +11643,7 @@
     </row>
     <row r="716" spans="1:7">
       <c r="A716" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B716">
         <v>1</v>
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="B724" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="725" spans="1:7" ht="15.75">
@@ -11764,7 +11764,7 @@
         <v>1</v>
       </c>
       <c r="B725" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="726" spans="1:7">
@@ -11804,7 +11804,7 @@
         <v>8</v>
       </c>
       <c r="B730" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="731" spans="1:7">
@@ -11837,7 +11837,7 @@
     </row>
     <row r="733" spans="1:7">
       <c r="A733" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B733">
         <v>1</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="741" spans="1:6" ht="15.75">
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="B741" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -11975,7 +11975,7 @@
         <v>8</v>
       </c>
       <c r="B746" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="747" spans="1:6" ht="15.75">
@@ -12005,7 +12005,7 @@
     </row>
     <row r="749" spans="1:6" ht="15.75">
       <c r="A749" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B749">
         <v>1</v>
@@ -12025,7 +12025,7 @@
     </row>
     <row r="750" spans="1:6">
       <c r="A750" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B750">
         <f>16*24.971</f>
@@ -12041,12 +12041,12 @@
         <v>15</v>
       </c>
       <c r="F750" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="751" spans="1:6">
       <c r="A751" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B751">
         <v>1</v>
@@ -12086,7 +12086,7 @@
     </row>
     <row r="753" spans="1:6">
       <c r="A753" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B753">
         <v>50</v>
@@ -12152,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="B759" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="760" spans="1:6" ht="15.75">
@@ -12160,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="B760" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="761" spans="1:6">
@@ -12200,7 +12200,7 @@
         <v>8</v>
       </c>
       <c r="B765" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="766" spans="1:6" ht="15.75">
@@ -12230,7 +12230,7 @@
     </row>
     <row r="768" spans="1:6">
       <c r="A768" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B768">
         <v>1</v>
@@ -12334,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="777" spans="1:6" ht="15.75">
@@ -12342,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="B777" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="778" spans="1:6">
@@ -12382,7 +12382,7 @@
         <v>8</v>
       </c>
       <c r="B782" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="783" spans="1:6" ht="15.75">
@@ -12412,7 +12412,7 @@
     </row>
     <row r="785" spans="1:6">
       <c r="A785" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B785">
         <v>1</v>
@@ -12452,7 +12452,7 @@
     </row>
     <row r="787" spans="1:6">
       <c r="A787" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B787">
         <v>0.22</v>
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="792" spans="1:6" ht="15.75">
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="B792" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="793" spans="1:6">
@@ -12523,7 +12523,7 @@
         <v>8</v>
       </c>
       <c r="B797" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="798" spans="1:6" ht="15.75">
@@ -12553,7 +12553,7 @@
     </row>
     <row r="800" spans="1:6">
       <c r="A800" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B800">
         <v>1</v>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="801" spans="1:7">
       <c r="A801" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B801">
         <v>40</v>
@@ -12593,7 +12593,7 @@
     </row>
     <row r="802" spans="1:7">
       <c r="A802" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B802">
         <f>640*24.971</f>
@@ -12609,12 +12609,12 @@
         <v>15</v>
       </c>
       <c r="F802" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="803" spans="1:7">
       <c r="A803" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B803">
         <v>15</v>
@@ -12629,15 +12629,15 @@
         <v>15</v>
       </c>
       <c r="F803" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G803" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="804" spans="1:7">
       <c r="A804" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B804">
         <v>480</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="811" spans="1:7">
@@ -12708,7 +12708,7 @@
         <v>1</v>
       </c>
       <c r="B811" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="812" spans="1:7">
@@ -12748,7 +12748,7 @@
         <v>8</v>
       </c>
       <c r="B816" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="817" spans="1:7" ht="15.75">
@@ -12781,7 +12781,7 @@
     </row>
     <row r="819" spans="1:7" ht="15.75">
       <c r="A819" s="16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B819">
         <v>1</v>
@@ -12801,7 +12801,7 @@
     </row>
     <row r="820" spans="1:7">
       <c r="A820" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B820" s="26">
         <f>0.0000278/1000</f>
@@ -12820,21 +12820,22 @@
         <v>230</v>
       </c>
       <c r="G820" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="821" spans="1:7">
       <c r="A821" t="s">
-        <v>369</v>
+        <v>22</v>
       </c>
       <c r="B821" s="10">
-        <v>0.313</v>
+        <f>0.122+0.313</f>
+        <v>0.435</v>
       </c>
       <c r="C821" t="s">
         <v>23</v>
       </c>
       <c r="D821" t="s">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="E821" t="s">
         <v>15</v>
@@ -12843,114 +12844,111 @@
         <v>24</v>
       </c>
       <c r="G821" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="822" spans="1:7">
-      <c r="A822" t="s">
-        <v>22</v>
-      </c>
-      <c r="B822" s="10">
-        <v>0.122</v>
-      </c>
-      <c r="C822" t="s">
-        <v>23</v>
-      </c>
-      <c r="D822" t="s">
-        <v>54</v>
-      </c>
-      <c r="E822" t="s">
-        <v>15</v>
-      </c>
-      <c r="F822" t="s">
-        <v>24</v>
-      </c>
-      <c r="G822" t="s">
-        <v>300</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" ht="15.75">
+      <c r="A825" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B825" s="18" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="826" spans="1:7" ht="15.75">
-      <c r="A826" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B826" s="18" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="827" spans="1:7" ht="15.75">
-      <c r="A827" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B827" s="28" t="s">
-        <v>428</v>
+      <c r="A826" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B826" s="28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7">
+      <c r="A827" t="s">
+        <v>2</v>
+      </c>
+      <c r="B827" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="828" spans="1:7">
       <c r="A828" t="s">
-        <v>2</v>
-      </c>
-      <c r="B828" t="s">
-        <v>236</v>
+        <v>4</v>
+      </c>
+      <c r="B828">
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:7">
       <c r="A829" t="s">
-        <v>4</v>
-      </c>
-      <c r="B829">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B829" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="830" spans="1:7">
       <c r="A830" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B830" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="831" spans="1:7">
       <c r="A831" t="s">
+        <v>8</v>
+      </c>
+      <c r="B831" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" ht="15.75">
+      <c r="A832" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7">
+      <c r="A833" t="s">
+        <v>10</v>
+      </c>
+      <c r="B833" t="s">
+        <v>11</v>
+      </c>
+      <c r="C833" t="s">
         <v>6</v>
       </c>
-      <c r="B831" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="832" spans="1:7">
-      <c r="A832" t="s">
-        <v>8</v>
-      </c>
-      <c r="B832" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="833" spans="1:7" ht="15.75">
-      <c r="A833" s="1" t="s">
-        <v>9</v>
+      <c r="D833" t="s">
+        <v>42</v>
+      </c>
+      <c r="E833" t="s">
+        <v>2</v>
+      </c>
+      <c r="F833" t="s">
+        <v>12</v>
+      </c>
+      <c r="G833" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="834" spans="1:7">
       <c r="A834" t="s">
-        <v>10</v>
-      </c>
-      <c r="B834" t="s">
-        <v>11</v>
+        <v>368</v>
+      </c>
+      <c r="B834">
+        <v>1</v>
       </c>
       <c r="C834" t="s">
-        <v>6</v>
-      </c>
-      <c r="D834" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E834" t="s">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="F834" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G834" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="835" spans="1:7">
@@ -12967,7 +12965,7 @@
         <v>236</v>
       </c>
       <c r="F835" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G835" t="s">
         <v>24</v>
@@ -12975,181 +12973,181 @@
     </row>
     <row r="836" spans="1:7">
       <c r="A836" t="s">
-        <v>370</v>
-      </c>
-      <c r="B836">
-        <v>1</v>
+        <v>237</v>
+      </c>
+      <c r="B836" s="13">
+        <f>1.13*10^-7</f>
+        <v>1.1299999999999998E-7</v>
       </c>
       <c r="C836" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E836" t="s">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="F836" t="s">
         <v>15</v>
       </c>
       <c r="G836" t="s">
-        <v>24</v>
+        <v>238</v>
       </c>
     </row>
     <row r="837" spans="1:7">
       <c r="A837" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B837" s="13">
+        <f>1.86278*10^-8</f>
+        <v>1.8627800000000002E-8</v>
+      </c>
+      <c r="C837" t="s">
+        <v>240</v>
+      </c>
+      <c r="E837" t="s">
+        <v>3</v>
+      </c>
+      <c r="F837" t="s">
+        <v>15</v>
+      </c>
+      <c r="G837" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7">
+      <c r="A838" t="s">
+        <v>242</v>
+      </c>
+      <c r="B838" s="13">
         <f>1.13*10^-7</f>
         <v>1.1299999999999998E-7</v>
       </c>
-      <c r="C837" t="s">
-        <v>7</v>
-      </c>
-      <c r="E837" t="s">
-        <v>29</v>
-      </c>
-      <c r="F837" t="s">
-        <v>15</v>
-      </c>
-      <c r="G837" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="838" spans="1:7">
-      <c r="A838" t="s">
-        <v>239</v>
-      </c>
-      <c r="B838" s="13">
-        <f>1.86278*10^-8</f>
-        <v>1.8627800000000002E-8</v>
-      </c>
       <c r="C838" t="s">
-        <v>240</v>
-      </c>
-      <c r="E838" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D838" t="s">
+        <v>43</v>
       </c>
       <c r="F838" t="s">
-        <v>15</v>
-      </c>
-      <c r="G838" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
     </row>
     <row r="839" spans="1:7">
-      <c r="A839" t="s">
-        <v>242</v>
-      </c>
-      <c r="B839" s="13">
-        <f>1.13*10^-7</f>
-        <v>1.1299999999999998E-7</v>
-      </c>
-      <c r="C839" t="s">
-        <v>7</v>
-      </c>
-      <c r="D839" t="s">
-        <v>43</v>
-      </c>
-      <c r="F839" t="s">
-        <v>44</v>
-      </c>
+      <c r="B839" s="3"/>
     </row>
     <row r="840" spans="1:7">
       <c r="B840" s="3"/>
     </row>
-    <row r="841" spans="1:7">
-      <c r="B841" s="3"/>
+    <row r="842" spans="1:7" ht="15.75">
+      <c r="A842" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="843" spans="1:7" ht="15.75">
-      <c r="A843" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B843" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="844" spans="1:7" ht="15.75">
-      <c r="A844" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B844" s="27" t="s">
-        <v>428</v>
+      <c r="A843" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B843" s="27" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7">
+      <c r="A844" t="s">
+        <v>2</v>
+      </c>
+      <c r="B844" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="845" spans="1:7">
       <c r="A845" t="s">
-        <v>2</v>
-      </c>
-      <c r="B845" t="s">
-        <v>236</v>
+        <v>4</v>
+      </c>
+      <c r="B845">
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:7">
       <c r="A846" t="s">
-        <v>4</v>
-      </c>
-      <c r="B846">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B846" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="847" spans="1:7">
       <c r="A847" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B847" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="848" spans="1:7">
       <c r="A848" t="s">
+        <v>8</v>
+      </c>
+      <c r="B848" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" ht="15.75">
+      <c r="A849" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8">
+      <c r="A850" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B850" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C850" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B848" t="s">
+      <c r="D850" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E850" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F850" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G850" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H850" s="15"/>
+    </row>
+    <row r="851" spans="1:8">
+      <c r="A851" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="B851">
+        <v>1</v>
+      </c>
+      <c r="C851" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="849" spans="1:8">
-      <c r="A849" t="s">
-        <v>8</v>
-      </c>
-      <c r="B849" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="850" spans="1:8" ht="15.75">
-      <c r="A850" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="851" spans="1:8">
-      <c r="A851" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B851" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C851" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D851" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E851" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F851" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G851" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H851" s="15"/>
+      <c r="E851" t="s">
+        <v>236</v>
+      </c>
+      <c r="F851" t="s">
+        <v>13</v>
+      </c>
+      <c r="G851" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="852" spans="1:8">
-      <c r="A852" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="B852">
-        <v>1</v>
+      <c r="A852" t="s">
+        <v>243</v>
+      </c>
+      <c r="B852" s="7">
+        <v>1.0037</v>
       </c>
       <c r="C852" t="s">
         <v>23</v>
@@ -13158,123 +13156,123 @@
         <v>236</v>
       </c>
       <c r="F852" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G852" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="853" spans="1:8">
-      <c r="A853" t="s">
-        <v>243</v>
-      </c>
-      <c r="B853" s="7">
-        <v>1.0037</v>
-      </c>
-      <c r="C853" t="s">
-        <v>23</v>
-      </c>
-      <c r="E853" t="s">
-        <v>236</v>
-      </c>
-      <c r="F853" t="s">
-        <v>15</v>
-      </c>
-      <c r="G853" t="s">
         <v>244</v>
       </c>
     </row>
+    <row r="856" spans="1:8" ht="15.75">
+      <c r="A856" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
     <row r="857" spans="1:8" ht="15.75">
-      <c r="A857" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B857" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="858" spans="1:8" ht="15.75">
-      <c r="A858" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B858" s="16" t="s">
-        <v>428</v>
+      <c r="A857" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B857" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8">
+      <c r="A858" t="s">
+        <v>2</v>
+      </c>
+      <c r="B858" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="859" spans="1:8">
       <c r="A859" t="s">
-        <v>2</v>
-      </c>
-      <c r="B859" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B859">
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
       <c r="A860" t="s">
-        <v>4</v>
-      </c>
-      <c r="B860">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B860" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="861" spans="1:8">
       <c r="A861" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B861" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
     </row>
     <row r="862" spans="1:8">
       <c r="A862" t="s">
+        <v>8</v>
+      </c>
+      <c r="B862" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8" ht="15.75">
+      <c r="A863" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8">
+      <c r="A864" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B864" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C864" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B862" t="s">
+      <c r="D864" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E864" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F864" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G864" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H864" s="15"/>
+    </row>
+    <row r="865" spans="1:7">
+      <c r="A865" t="s">
+        <v>370</v>
+      </c>
+      <c r="B865">
+        <v>1</v>
+      </c>
+      <c r="C865" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="863" spans="1:8">
-      <c r="A863" t="s">
-        <v>8</v>
-      </c>
-      <c r="B863" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="864" spans="1:8" ht="15.75">
-      <c r="A864" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="865" spans="1:8">
-      <c r="A865" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B865" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C865" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D865" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E865" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F865" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G865" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H865" s="15"/>
-    </row>
-    <row r="866" spans="1:8">
+      <c r="E865" t="s">
+        <v>3</v>
+      </c>
+      <c r="F865" t="s">
+        <v>13</v>
+      </c>
+      <c r="G865" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7">
       <c r="A866" t="s">
         <v>371</v>
       </c>
       <c r="B866">
-        <v>1</v>
+        <v>-1300</v>
       </c>
       <c r="C866" t="s">
         <v>6</v>
@@ -13283,162 +13281,162 @@
         <v>3</v>
       </c>
       <c r="F866" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G866" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="867" spans="1:8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7">
       <c r="A867" t="s">
         <v>372</v>
       </c>
       <c r="B867">
-        <v>-1300</v>
+        <v>-9000</v>
       </c>
       <c r="C867" t="s">
+        <v>7</v>
+      </c>
+      <c r="E867" t="s">
+        <v>3</v>
+      </c>
+      <c r="F867" t="s">
+        <v>15</v>
+      </c>
+      <c r="G867" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" ht="15.75">
+      <c r="A871" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" ht="15.75">
+      <c r="A872" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B872" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7">
+      <c r="A873" t="s">
+        <v>2</v>
+      </c>
+      <c r="B873" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7">
+      <c r="A874" t="s">
+        <v>4</v>
+      </c>
+      <c r="B874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7">
+      <c r="A875" t="s">
+        <v>5</v>
+      </c>
+      <c r="B875" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7">
+      <c r="A876" t="s">
         <v>6</v>
       </c>
-      <c r="E867" t="s">
-        <v>3</v>
-      </c>
-      <c r="F867" t="s">
-        <v>15</v>
-      </c>
-      <c r="G867" t="s">
+      <c r="B876" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7">
+      <c r="A877" t="s">
+        <v>8</v>
+      </c>
+      <c r="B877" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" ht="15.75">
+      <c r="A878" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7">
+      <c r="A879" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B879" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C879" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D879" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E879" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F879" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G879" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7">
+      <c r="A880" t="s">
+        <v>371</v>
+      </c>
+      <c r="B880">
+        <v>1</v>
+      </c>
+      <c r="C880" t="s">
+        <v>6</v>
+      </c>
+      <c r="E880" t="s">
+        <v>3</v>
+      </c>
+      <c r="F880" t="s">
+        <v>13</v>
+      </c>
+      <c r="G880" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="868" spans="1:8">
-      <c r="A868" t="s">
-        <v>373</v>
-      </c>
-      <c r="B868">
-        <v>-9000</v>
-      </c>
-      <c r="C868" t="s">
-        <v>7</v>
-      </c>
-      <c r="E868" t="s">
-        <v>3</v>
-      </c>
-      <c r="F868" t="s">
-        <v>15</v>
-      </c>
-      <c r="G868" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="872" spans="1:8" ht="15.75">
-      <c r="A872" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B872" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="873" spans="1:8" ht="15.75">
-      <c r="A873" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B873" s="16" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="874" spans="1:8">
-      <c r="A874" t="s">
-        <v>2</v>
-      </c>
-      <c r="B874" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="875" spans="1:8">
-      <c r="A875" t="s">
-        <v>4</v>
-      </c>
-      <c r="B875">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="876" spans="1:8">
-      <c r="A876" t="s">
-        <v>5</v>
-      </c>
-      <c r="B876" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="877" spans="1:8">
-      <c r="A877" t="s">
-        <v>6</v>
-      </c>
-      <c r="B877" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="878" spans="1:8">
-      <c r="A878" t="s">
-        <v>8</v>
-      </c>
-      <c r="B878" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="879" spans="1:8" ht="15.75">
-      <c r="A879" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="880" spans="1:8">
-      <c r="A880" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B880" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C880" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D880" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E880" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F880" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G880" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="881" spans="1:8">
       <c r="A881" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B881">
-        <v>1</v>
+        <v>-408</v>
       </c>
       <c r="C881" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E881" t="s">
         <v>3</v>
       </c>
       <c r="F881" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G881" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="882" spans="1:8">
       <c r="A882" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B882">
-        <v>-408</v>
+        <v>-3.38</v>
       </c>
       <c r="C882" t="s">
         <v>7</v>
@@ -13450,309 +13448,309 @@
         <v>15</v>
       </c>
       <c r="G882" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="883" spans="1:8">
       <c r="A883" t="s">
+        <v>264</v>
+      </c>
+      <c r="B883">
+        <v>-2.8</v>
+      </c>
+      <c r="C883" t="s">
+        <v>7</v>
+      </c>
+      <c r="E883" t="s">
+        <v>17</v>
+      </c>
+      <c r="F883" t="s">
+        <v>15</v>
+      </c>
+      <c r="G883" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8" ht="15.75">
+      <c r="A887" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B887" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B883">
-        <v>-3.38</v>
-      </c>
-      <c r="C883" t="s">
-        <v>7</v>
-      </c>
-      <c r="E883" t="s">
-        <v>3</v>
-      </c>
-      <c r="F883" t="s">
-        <v>15</v>
-      </c>
-      <c r="G883" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="884" spans="1:8">
-      <c r="A884" t="s">
-        <v>264</v>
-      </c>
-      <c r="B884">
-        <v>-2.8</v>
-      </c>
-      <c r="C884" t="s">
-        <v>7</v>
-      </c>
-      <c r="E884" t="s">
-        <v>17</v>
-      </c>
-      <c r="F884" t="s">
-        <v>15</v>
-      </c>
-      <c r="G884" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="888" spans="1:8" ht="15.75">
-      <c r="A888" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B888" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="889" spans="1:8" ht="15.75">
-      <c r="A889" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B889" s="16" t="s">
-        <v>428</v>
+      <c r="A888" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B888" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8">
+      <c r="A889" t="s">
+        <v>2</v>
+      </c>
+      <c r="B889" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="890" spans="1:8">
       <c r="A890" t="s">
-        <v>2</v>
-      </c>
-      <c r="B890" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B890">
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
       <c r="A891" t="s">
-        <v>4</v>
-      </c>
-      <c r="B891">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B891" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="892" spans="1:8">
       <c r="A892" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B892" t="s">
-        <v>252</v>
+        <v>7</v>
       </c>
     </row>
     <row r="893" spans="1:8">
       <c r="A893" t="s">
+        <v>8</v>
+      </c>
+      <c r="B893" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8" ht="15.75">
+      <c r="A894" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8">
+      <c r="A895" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B895" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C895" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B893" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="894" spans="1:8">
-      <c r="A894" t="s">
-        <v>8</v>
-      </c>
-      <c r="B894" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="895" spans="1:8" ht="15.75">
-      <c r="A895" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="896" spans="1:8">
-      <c r="A896" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B896" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C896" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D896" s="15" t="s">
+      <c r="D895" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E896" s="15" t="s">
+      <c r="E895" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F896" s="15" t="s">
+      <c r="F895" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G896" s="15" t="s">
+      <c r="G895" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H896" s="15" t="s">
+      <c r="H895" s="15" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8" ht="15.75">
+      <c r="A896" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B896">
+        <v>1</v>
+      </c>
+      <c r="C896" t="s">
+        <v>7</v>
+      </c>
+      <c r="E896" t="s">
+        <v>3</v>
+      </c>
+      <c r="F896" t="s">
+        <v>13</v>
+      </c>
+      <c r="G896" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="897" spans="1:8" ht="15.75">
       <c r="A897" s="16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B897">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C897" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E897" t="s">
         <v>3</v>
       </c>
       <c r="F897" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G897" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="898" spans="1:8" ht="15.75">
-      <c r="A898" s="16" t="s">
-        <v>372</v>
+        <v>246</v>
+      </c>
+      <c r="H897" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8">
+      <c r="A898" t="s">
+        <v>22</v>
       </c>
       <c r="B898">
-        <v>30</v>
+        <v>0.24</v>
       </c>
       <c r="C898" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E898" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="F898" t="s">
         <v>15</v>
       </c>
       <c r="G898" t="s">
-        <v>246</v>
-      </c>
-      <c r="H898" t="s">
-        <v>405</v>
+        <v>24</v>
       </c>
     </row>
     <row r="899" spans="1:8">
       <c r="A899" t="s">
-        <v>22</v>
+        <v>321</v>
       </c>
       <c r="B899">
-        <v>0.24</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C899" t="s">
-        <v>23</v>
-      </c>
-      <c r="E899" t="s">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="D899" t="s">
+        <v>43</v>
       </c>
       <c r="F899" t="s">
-        <v>15</v>
-      </c>
-      <c r="G899" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="900" spans="1:8">
-      <c r="A900" t="s">
-        <v>322</v>
-      </c>
-      <c r="B900">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C900" t="s">
-        <v>7</v>
-      </c>
-      <c r="D900" t="s">
-        <v>43</v>
-      </c>
-      <c r="F900" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="903" spans="1:8" ht="15.75">
+      <c r="A903" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B903" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
     <row r="904" spans="1:8" ht="15.75">
-      <c r="A904" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B904" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="905" spans="1:8" ht="15.75">
-      <c r="A905" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B905" s="16" t="s">
-        <v>428</v>
+      <c r="A904" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B904" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8">
+      <c r="A905" t="s">
+        <v>2</v>
+      </c>
+      <c r="B905" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="906" spans="1:8">
       <c r="A906" t="s">
-        <v>2</v>
-      </c>
-      <c r="B906" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B906">
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
       <c r="A907" t="s">
-        <v>4</v>
-      </c>
-      <c r="B907">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B907" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="908" spans="1:8">
       <c r="A908" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B908" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
     </row>
     <row r="909" spans="1:8">
       <c r="A909" t="s">
+        <v>8</v>
+      </c>
+      <c r="B909" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8" ht="15.75">
+      <c r="A910" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8">
+      <c r="A911" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B911" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C911" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B909" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="910" spans="1:8">
-      <c r="A910" t="s">
-        <v>8</v>
-      </c>
-      <c r="B910" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="911" spans="1:8" ht="15.75">
-      <c r="A911" s="1" t="s">
-        <v>9</v>
+      <c r="D911" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E911" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F911" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G911" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H911" s="15" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="912" spans="1:8">
-      <c r="A912" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B912" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C912" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D912" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E912" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F912" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G912" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H912" s="15" t="s">
-        <v>299</v>
+      <c r="A912" t="s">
+        <v>374</v>
+      </c>
+      <c r="B912">
+        <v>1</v>
+      </c>
+      <c r="C912" t="s">
+        <v>7</v>
+      </c>
+      <c r="E912" t="s">
+        <v>3</v>
+      </c>
+      <c r="F912" t="s">
+        <v>13</v>
+      </c>
+      <c r="G912" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="913" spans="1:8">
       <c r="A913" t="s">
-        <v>375</v>
-      </c>
-      <c r="B913">
-        <v>1</v>
+        <v>373</v>
+      </c>
+      <c r="B913" s="7">
+        <v>1.03</v>
       </c>
       <c r="C913" t="s">
         <v>7</v>
@@ -13761,21 +13759,21 @@
         <v>3</v>
       </c>
       <c r="F913" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G913" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="914" spans="1:8">
       <c r="A914" t="s">
-        <v>374</v>
+        <v>22</v>
       </c>
       <c r="B914" s="7">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="C914" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E914" t="s">
         <v>3</v>
@@ -13784,61 +13782,61 @@
         <v>15</v>
       </c>
       <c r="G914" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
     </row>
     <row r="915" spans="1:8">
       <c r="A915" t="s">
-        <v>22</v>
-      </c>
-      <c r="B915" s="7">
-        <v>2.06</v>
+        <v>33</v>
+      </c>
+      <c r="B915">
+        <v>3.6</v>
       </c>
       <c r="C915" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E915" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F915" t="s">
         <v>15</v>
       </c>
       <c r="G915" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="H915" s="10" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="916" spans="1:8">
       <c r="A916" t="s">
-        <v>33</v>
-      </c>
-      <c r="B916">
-        <v>3.6</v>
+        <v>80</v>
+      </c>
+      <c r="B916" s="7">
+        <v>3.09</v>
       </c>
       <c r="C916" t="s">
         <v>34</v>
       </c>
       <c r="E916" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F916" t="s">
         <v>15</v>
       </c>
       <c r="G916" t="s">
-        <v>35</v>
-      </c>
-      <c r="H916" s="10" t="s">
-        <v>254</v>
+        <v>81</v>
       </c>
     </row>
     <row r="917" spans="1:8">
       <c r="A917" t="s">
-        <v>80</v>
-      </c>
-      <c r="B917" s="7">
-        <v>3.09</v>
+        <v>372</v>
+      </c>
+      <c r="B917">
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="C917" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E917" t="s">
         <v>3</v>
@@ -13847,122 +13845,122 @@
         <v>15</v>
       </c>
       <c r="G917" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="918" spans="1:8">
-      <c r="A918" t="s">
-        <v>373</v>
-      </c>
-      <c r="B918">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="C918" t="s">
-        <v>7</v>
-      </c>
-      <c r="E918" t="s">
-        <v>3</v>
-      </c>
-      <c r="F918" t="s">
-        <v>15</v>
-      </c>
-      <c r="G918" t="s">
         <v>251</v>
       </c>
     </row>
+    <row r="919" spans="1:8" ht="15.75">
+      <c r="A919" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B919" s="18" t="s">
+        <v>375</v>
+      </c>
+    </row>
     <row r="920" spans="1:8" ht="15.75">
-      <c r="A920" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B920" s="18" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="921" spans="1:8" ht="15.75">
-      <c r="A921" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B921" s="28" t="s">
-        <v>428</v>
+      <c r="A920" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B920" s="28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8">
+      <c r="A921" t="s">
+        <v>2</v>
+      </c>
+      <c r="B921" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="922" spans="1:8">
       <c r="A922" t="s">
-        <v>2</v>
-      </c>
-      <c r="B922" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B922">
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
       <c r="A923" t="s">
-        <v>4</v>
-      </c>
-      <c r="B923">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B923" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="924" spans="1:8">
       <c r="A924" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B924" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="925" spans="1:8">
       <c r="A925" t="s">
+        <v>8</v>
+      </c>
+      <c r="B925" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8" ht="15.75">
+      <c r="A926" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8">
+      <c r="A927" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B927" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C927" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B925" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="926" spans="1:8">
-      <c r="A926" t="s">
-        <v>8</v>
-      </c>
-      <c r="B926" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="927" spans="1:8" ht="15.75">
-      <c r="A927" s="1" t="s">
-        <v>9</v>
+      <c r="D927" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E927" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F927" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G927" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H927" s="15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
-      <c r="A928" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B928" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C928" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D928" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E928" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F928" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G928" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H928" s="15" t="s">
-        <v>1</v>
+      <c r="A928" t="s">
+        <v>375</v>
+      </c>
+      <c r="B928">
+        <v>1</v>
+      </c>
+      <c r="C928" t="s">
+        <v>7</v>
+      </c>
+      <c r="E928" t="s">
+        <v>3</v>
+      </c>
+      <c r="F928" t="s">
+        <v>13</v>
+      </c>
+      <c r="G928" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="929" spans="1:8">
       <c r="A929" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B929">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C929" t="s">
         <v>7</v>
@@ -13971,18 +13969,18 @@
         <v>3</v>
       </c>
       <c r="F929" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G929" t="s">
-        <v>97</v>
+        <v>253</v>
       </c>
     </row>
     <row r="930" spans="1:8">
       <c r="A930" t="s">
-        <v>375</v>
+        <v>255</v>
       </c>
       <c r="B930">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="C930" t="s">
         <v>7</v>
@@ -13994,15 +13992,15 @@
         <v>15</v>
       </c>
       <c r="G930" t="s">
-        <v>253</v>
+        <v>46</v>
       </c>
     </row>
     <row r="931" spans="1:8">
       <c r="A931" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B931">
-        <v>5.9</v>
+        <v>1.7</v>
       </c>
       <c r="C931" t="s">
         <v>7</v>
@@ -14014,35 +14012,35 @@
         <v>15</v>
       </c>
       <c r="G931" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
     </row>
     <row r="932" spans="1:8">
       <c r="A932" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B932">
-        <v>1.7</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C932" t="s">
         <v>7</v>
       </c>
       <c r="E932" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F932" t="s">
         <v>15</v>
       </c>
       <c r="G932" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
     </row>
     <row r="933" spans="1:8">
       <c r="A933" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B933">
-        <v>0.28000000000000003</v>
+        <v>0.65</v>
       </c>
       <c r="C933" t="s">
         <v>7</v>
@@ -14054,98 +14052,99 @@
         <v>15</v>
       </c>
       <c r="G933" t="s">
-        <v>293</v>
+        <v>406</v>
       </c>
     </row>
     <row r="934" spans="1:8">
       <c r="A934" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B934">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="C934" t="s">
         <v>7</v>
       </c>
       <c r="E934" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F934" t="s">
         <v>15</v>
       </c>
       <c r="G934" t="s">
-        <v>408</v>
+        <v>261</v>
       </c>
     </row>
     <row r="935" spans="1:8">
       <c r="A935" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="B935">
-        <v>0.19</v>
+        <v>112</v>
       </c>
       <c r="C935" t="s">
         <v>7</v>
       </c>
       <c r="E935" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F935" t="s">
         <v>15</v>
       </c>
       <c r="G935" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
     </row>
     <row r="936" spans="1:8">
       <c r="A936" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B936">
-        <v>112</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C936" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E936" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F936" t="s">
         <v>15</v>
       </c>
       <c r="G936" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="937" spans="1:8">
       <c r="A937" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B937">
-        <v>1.4999999999999999E-2</v>
+        <v>21</v>
       </c>
       <c r="C937" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E937" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F937" t="s">
         <v>15</v>
       </c>
       <c r="G937" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="938" spans="1:8">
       <c r="A938" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B938">
-        <v>21</v>
+        <f>-120/1000</f>
+        <v>-0.12</v>
       </c>
       <c r="C938" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E938" t="s">
         <v>17</v>
@@ -14154,19 +14153,21 @@
         <v>15</v>
       </c>
       <c r="G938" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="H938" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="939" spans="1:8">
       <c r="A939" t="s">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c r="B939">
-        <f>-120/1000</f>
-        <v>-0.12</v>
+        <v>-0.36</v>
       </c>
       <c r="C939" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E939" t="s">
         <v>17</v>
@@ -14175,225 +14176,223 @@
         <v>15</v>
       </c>
       <c r="G939" t="s">
-        <v>50</v>
-      </c>
-      <c r="H939" t="s">
-        <v>409</v>
+        <v>263</v>
       </c>
     </row>
     <row r="940" spans="1:8">
       <c r="A940" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="B940">
-        <v>-0.36</v>
+        <v>0.19</v>
       </c>
       <c r="C940" t="s">
         <v>7</v>
       </c>
-      <c r="E940" t="s">
-        <v>17</v>
+      <c r="D940" t="s">
+        <v>43</v>
       </c>
       <c r="F940" t="s">
-        <v>15</v>
-      </c>
-      <c r="G940" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="941" spans="1:8">
-      <c r="A941" t="s">
-        <v>294</v>
-      </c>
-      <c r="B941">
-        <v>0.19</v>
-      </c>
-      <c r="C941" t="s">
-        <v>7</v>
-      </c>
-      <c r="D941" t="s">
-        <v>43</v>
-      </c>
-      <c r="F941" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="943" spans="1:8" ht="15.75">
+      <c r="A943" s="1"/>
+      <c r="B943" s="1"/>
+    </row>
     <row r="944" spans="1:8" ht="15.75">
-      <c r="A944" s="1"/>
-      <c r="B944" s="1"/>
+      <c r="A944" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B944" s="1" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="945" spans="1:7" ht="15.75">
-      <c r="A945" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B945" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="946" spans="1:7" ht="15.75">
-      <c r="A946" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B946" s="16" t="s">
-        <v>428</v>
+      <c r="A945" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B945" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7">
+      <c r="A946" t="s">
+        <v>2</v>
+      </c>
+      <c r="B946" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="947" spans="1:7">
       <c r="A947" t="s">
-        <v>2</v>
-      </c>
-      <c r="B947" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B947">
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:7">
       <c r="A948" t="s">
-        <v>4</v>
-      </c>
-      <c r="B948">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B948" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="949" spans="1:7">
       <c r="A949" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B949" t="s">
-        <v>251</v>
+        <v>7</v>
       </c>
     </row>
     <row r="950" spans="1:7">
       <c r="A950" t="s">
+        <v>8</v>
+      </c>
+      <c r="B950" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" ht="15.75">
+      <c r="A951" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7">
+      <c r="A952" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B952" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C952" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B950" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="951" spans="1:7">
-      <c r="A951" t="s">
-        <v>8</v>
-      </c>
-      <c r="B951" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="952" spans="1:7" ht="15.75">
-      <c r="A952" s="1" t="s">
-        <v>9</v>
+      <c r="D952" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E952" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F952" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G952" s="15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="953" spans="1:7">
-      <c r="A953" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B953" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C953" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D953" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E953" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F953" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G953" s="15" t="s">
-        <v>5</v>
+      <c r="A953" t="s">
+        <v>372</v>
+      </c>
+      <c r="B953">
+        <v>1</v>
+      </c>
+      <c r="C953" t="s">
+        <v>7</v>
+      </c>
+      <c r="E953" t="s">
+        <v>3</v>
+      </c>
+      <c r="F953" t="s">
+        <v>13</v>
+      </c>
+      <c r="G953" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="954" spans="1:7">
       <c r="A954" t="s">
-        <v>373</v>
+        <v>22</v>
       </c>
       <c r="B954">
-        <v>1</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C954" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E954" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="F954" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G954" t="s">
-        <v>251</v>
+        <v>24</v>
       </c>
     </row>
     <row r="955" spans="1:7">
       <c r="A955" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B955">
-        <v>5.3999999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C955" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E955" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F955" t="s">
         <v>15</v>
       </c>
       <c r="G955" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="956" spans="1:7">
       <c r="A956" t="s">
-        <v>33</v>
-      </c>
-      <c r="B956">
-        <v>3.2000000000000001E-2</v>
+        <v>266</v>
+      </c>
+      <c r="B956" s="5">
+        <f>-33566/47825</f>
+        <v>-0.70185049660219545</v>
       </c>
       <c r="C956" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E956" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F956" t="s">
         <v>15</v>
       </c>
       <c r="G956" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
     </row>
     <row r="957" spans="1:7">
       <c r="A957" t="s">
-        <v>266</v>
-      </c>
-      <c r="B957" s="5">
-        <f>-33566/47825</f>
-        <v>-0.70185049660219545</v>
+        <v>268</v>
+      </c>
+      <c r="B957" s="4">
+        <f>-1919/47825</f>
+        <v>-4.0125457396759018E-2</v>
       </c>
       <c r="C957" t="s">
         <v>7</v>
       </c>
       <c r="E957" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F957" t="s">
         <v>15</v>
       </c>
       <c r="G957" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="958" spans="1:7">
       <c r="A958" t="s">
-        <v>268</v>
-      </c>
-      <c r="B958" s="4">
-        <f>-1919/47825</f>
-        <v>-4.0125457396759018E-2</v>
+        <v>270</v>
+      </c>
+      <c r="B958" s="5">
+        <f>-9350/47825</f>
+        <v>-0.19550444328280189</v>
       </c>
       <c r="C958" t="s">
         <v>7</v>
@@ -14405,144 +14404,143 @@
         <v>15</v>
       </c>
       <c r="G958" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="959" spans="1:7">
       <c r="A959" t="s">
-        <v>270</v>
-      </c>
-      <c r="B959" s="5">
-        <f>-9350/47825</f>
-        <v>-0.19550444328280189</v>
-      </c>
-      <c r="C959" t="s">
-        <v>7</v>
-      </c>
-      <c r="E959" t="s">
-        <v>17</v>
-      </c>
-      <c r="F959" t="s">
-        <v>15</v>
-      </c>
-      <c r="G959" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="960" spans="1:7">
-      <c r="A960" t="s">
         <v>272</v>
       </c>
-      <c r="B960" s="4">
+      <c r="B959" s="4">
         <f>-2990/47825</f>
         <v>-6.2519602718243597E-2</v>
       </c>
-      <c r="C960" t="s">
-        <v>7</v>
-      </c>
-      <c r="E960" t="s">
-        <v>3</v>
-      </c>
-      <c r="F960" t="s">
-        <v>15</v>
-      </c>
-      <c r="G960" t="s">
+      <c r="C959" t="s">
+        <v>7</v>
+      </c>
+      <c r="E959" t="s">
+        <v>3</v>
+      </c>
+      <c r="F959" t="s">
+        <v>15</v>
+      </c>
+      <c r="G959" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="964" spans="1:8" ht="15.75">
-      <c r="A964" s="1" t="s">
+    <row r="963" spans="1:8" ht="15.75">
+      <c r="A963" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B964" s="1" t="s">
-        <v>337</v>
+      <c r="B963" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8">
+      <c r="A964" t="s">
+        <v>1</v>
+      </c>
+      <c r="B964" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="965" spans="1:8">
       <c r="A965" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B965" t="s">
-        <v>427</v>
+        <v>3</v>
       </c>
     </row>
     <row r="966" spans="1:8">
       <c r="A966" t="s">
-        <v>2</v>
-      </c>
-      <c r="B966" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B966">
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
       <c r="A967" t="s">
-        <v>4</v>
-      </c>
-      <c r="B967">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B967" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="968" spans="1:8">
       <c r="A968" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B968" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="969" spans="1:8">
       <c r="A969" t="s">
+        <v>8</v>
+      </c>
+      <c r="B969" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8" ht="15.75">
+      <c r="A970" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8">
+      <c r="A971" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B971" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C971" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B969" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="970" spans="1:8">
-      <c r="A970" t="s">
-        <v>8</v>
-      </c>
-      <c r="B970" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="971" spans="1:8" ht="15.75">
-      <c r="A971" s="1" t="s">
-        <v>9</v>
+      <c r="D971" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E971" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F971" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G971" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H971" s="15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
-      <c r="A972" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B972" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C972" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D972" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E972" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F972" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G972" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H972" s="15" t="s">
-        <v>1</v>
+      <c r="A972" t="s">
+        <v>336</v>
+      </c>
+      <c r="B972">
+        <v>1</v>
+      </c>
+      <c r="C972" t="s">
+        <v>7</v>
+      </c>
+      <c r="E972" t="s">
+        <v>3</v>
+      </c>
+      <c r="F972" t="s">
+        <v>13</v>
+      </c>
+      <c r="G972" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="973" spans="1:8">
       <c r="A973" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="B973">
-        <v>1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C973" t="s">
         <v>7</v>
@@ -14551,18 +14549,21 @@
         <v>3</v>
       </c>
       <c r="F973" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G973" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="974" spans="1:8">
-      <c r="A974" t="s">
-        <v>378</v>
+      <c r="H973" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="974" spans="1:8" ht="15.75">
+      <c r="A974" s="16" t="s">
+        <v>375</v>
       </c>
       <c r="B974">
-        <v>0.28000000000000003</v>
+        <v>0.72</v>
       </c>
       <c r="C974" t="s">
         <v>7</v>
@@ -14576,42 +14577,29 @@
       <c r="G974" t="s">
         <v>97</v>
       </c>
-      <c r="H974" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="975" spans="1:8" ht="15.75">
-      <c r="A975" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="B975">
-        <v>0.72</v>
-      </c>
-      <c r="C975" t="s">
-        <v>7</v>
-      </c>
-      <c r="E975" t="s">
-        <v>3</v>
-      </c>
-      <c r="F975" t="s">
-        <v>15</v>
-      </c>
-      <c r="G975" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="977" spans="1:8" ht="15.75">
-      <c r="A977" s="6"/>
+    </row>
+    <row r="976" spans="1:8" ht="15.75">
+      <c r="A976" s="6"/>
+    </row>
+    <row r="977" spans="1:8">
+      <c r="B977" s="4"/>
     </row>
     <row r="978" spans="1:8">
       <c r="B978" s="4"/>
     </row>
-    <row r="979" spans="1:8">
-      <c r="B979" s="4"/>
-    </row>
-    <row r="980" spans="1:8" ht="15.75">
-      <c r="A980" s="18"/>
-      <c r="B980" s="18"/>
+    <row r="979" spans="1:8" ht="15.75">
+      <c r="A979" s="18"/>
+      <c r="B979" s="18"/>
+      <c r="C979" s="21"/>
+      <c r="D979" s="21"/>
+      <c r="E979" s="21"/>
+      <c r="F979" s="21"/>
+      <c r="G979" s="21"/>
+      <c r="H979" s="21"/>
+    </row>
+    <row r="980" spans="1:8">
+      <c r="A980" s="21"/>
+      <c r="B980" s="21"/>
       <c r="C980" s="21"/>
       <c r="D980" s="21"/>
       <c r="E980" s="21"/>
@@ -14669,8 +14657,8 @@
       <c r="G985" s="21"/>
       <c r="H985" s="21"/>
     </row>
-    <row r="986" spans="1:8">
-      <c r="A986" s="21"/>
+    <row r="986" spans="1:8" ht="15.75">
+      <c r="A986" s="18"/>
       <c r="B986" s="21"/>
       <c r="C986" s="21"/>
       <c r="D986" s="21"/>
@@ -14679,14 +14667,14 @@
       <c r="G986" s="21"/>
       <c r="H986" s="21"/>
     </row>
-    <row r="987" spans="1:8" ht="15.75">
-      <c r="A987" s="18"/>
-      <c r="B987" s="21"/>
-      <c r="C987" s="21"/>
-      <c r="D987" s="21"/>
-      <c r="E987" s="21"/>
-      <c r="F987" s="21"/>
-      <c r="G987" s="21"/>
+    <row r="987" spans="1:8">
+      <c r="A987" s="22"/>
+      <c r="B987" s="22"/>
+      <c r="C987" s="22"/>
+      <c r="D987" s="22"/>
+      <c r="E987" s="22"/>
+      <c r="F987" s="22"/>
+      <c r="G987" s="22"/>
       <c r="H987" s="21"/>
     </row>
     <row r="988" spans="1:8">
@@ -14700,13 +14688,13 @@
       <c r="H988" s="21"/>
     </row>
     <row r="989" spans="1:8">
-      <c r="A989" s="22"/>
-      <c r="B989" s="22"/>
-      <c r="C989" s="22"/>
-      <c r="D989" s="22"/>
-      <c r="E989" s="22"/>
-      <c r="F989" s="22"/>
-      <c r="G989" s="22"/>
+      <c r="A989" s="21"/>
+      <c r="B989" s="21"/>
+      <c r="C989" s="21"/>
+      <c r="D989" s="21"/>
+      <c r="E989" s="21"/>
+      <c r="F989" s="21"/>
+      <c r="G989" s="21"/>
       <c r="H989" s="21"/>
     </row>
     <row r="990" spans="1:8">
@@ -14719,59 +14707,49 @@
       <c r="G990" s="21"/>
       <c r="H990" s="21"/>
     </row>
-    <row r="991" spans="1:8">
-      <c r="A991" s="21"/>
-      <c r="B991" s="21"/>
-      <c r="C991" s="21"/>
-      <c r="D991" s="21"/>
-      <c r="E991" s="21"/>
-      <c r="F991" s="21"/>
-      <c r="G991" s="21"/>
-      <c r="H991" s="21"/>
-    </row>
-    <row r="997" spans="1:2" ht="15.75">
-      <c r="A997" s="1"/>
-    </row>
-    <row r="1003" spans="1:2" ht="15.75">
-      <c r="A1003" s="1"/>
-      <c r="B1003" s="1"/>
-    </row>
-    <row r="1010" spans="1:2" ht="15.75">
-      <c r="A1010" s="1"/>
-    </row>
-    <row r="1020" spans="1:2" ht="15.75">
-      <c r="A1020" s="1"/>
-      <c r="B1020" s="1"/>
-    </row>
-    <row r="1027" spans="1:2" ht="15.75">
-      <c r="A1027" s="1"/>
-    </row>
-    <row r="1033" spans="1:2" ht="15.75">
-      <c r="A1033" s="1"/>
-      <c r="B1033" s="1"/>
-    </row>
-    <row r="1040" spans="1:2" ht="15.75">
-      <c r="A1040" s="1"/>
-    </row>
-    <row r="1046" spans="1:8" ht="15.75">
-      <c r="A1046" s="1"/>
-      <c r="B1046" s="1"/>
+    <row r="996" spans="1:2" ht="15.75">
+      <c r="A996" s="1"/>
+    </row>
+    <row r="1002" spans="1:2" ht="15.75">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+    </row>
+    <row r="1009" spans="1:2" ht="15.75">
+      <c r="A1009" s="1"/>
+    </row>
+    <row r="1019" spans="1:2" ht="15.75">
+      <c r="A1019" s="1"/>
+      <c r="B1019" s="1"/>
+    </row>
+    <row r="1026" spans="1:2" ht="15.75">
+      <c r="A1026" s="1"/>
+    </row>
+    <row r="1032" spans="1:2" ht="15.75">
+      <c r="A1032" s="1"/>
+      <c r="B1032" s="1"/>
+    </row>
+    <row r="1039" spans="1:2" ht="15.75">
+      <c r="A1039" s="1"/>
+    </row>
+    <row r="1045" spans="1:8" ht="15.75">
+      <c r="A1045" s="1"/>
+      <c r="B1045" s="1"/>
+    </row>
+    <row r="1051" spans="1:8" ht="15.75">
+      <c r="A1051" s="1"/>
     </row>
     <row r="1052" spans="1:8" ht="15.75">
       <c r="A1052" s="1"/>
-    </row>
-    <row r="1053" spans="1:8" ht="15.75">
-      <c r="A1053" s="1"/>
-      <c r="B1053" s="1"/>
-      <c r="C1053" s="1"/>
-      <c r="D1053" s="1"/>
-      <c r="E1053" s="1"/>
-      <c r="F1053" s="1"/>
-      <c r="G1053" s="1"/>
-      <c r="H1053" s="1"/>
+      <c r="B1052" s="1"/>
+      <c r="C1052" s="1"/>
+      <c r="D1052" s="1"/>
+      <c r="E1052" s="1"/>
+      <c r="F1052" s="1"/>
+      <c r="G1052" s="1"/>
+      <c r="H1052" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1059" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O1058" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-batteries-LiS.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-LiS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8185D6C4-320C-E44E-8923-7E543D9EFFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE58873D-ABA9-0644-9DC0-417D49BB1138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2008,7 +2008,7 @@
   <dimension ref="A1:Q1068"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B464" sqref="B464"/>
+      <selection activeCell="B462" sqref="B462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-batteries-LiS.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-LiS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE58873D-ABA9-0644-9DC0-417D49BB1138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8185D6C4-320C-E44E-8923-7E543D9EFFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2008,7 +2008,7 @@
   <dimension ref="A1:Q1068"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B462" sqref="B462"/>
+      <selection activeCell="B464" sqref="B464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
